--- a/SPRINT 1/2-Seguimiento/Entregas Sprint-1 plataforma UTP/Entrega 10 Acta de Reunion Semanal de SCRUM No.4/Plantilla Pila de Sprint1 semana 4.xlsx
+++ b/SPRINT 1/2-Seguimiento/Entregas Sprint-1 plataforma UTP/Entrega 10 Acta de Reunion Semanal de SCRUM No.4/Plantilla Pila de Sprint1 semana 4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="87">
   <si>
     <t>CATEGORÍA</t>
   </si>
@@ -263,31 +263,40 @@
     <t>semanal</t>
   </si>
   <si>
-    <t>CREAR ARTICULO/PRODUCTO</t>
-  </si>
-  <si>
     <t>Terminada</t>
   </si>
   <si>
-    <t>ACTUALIZAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>LISTAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>DOCUMENTO ESPECIFICACION DE PRUEBAS ACTUALIZAR PRODUCTO</t>
-  </si>
-  <si>
-    <t>MODO DE EJECUCION DE PRUEBAS ACTUALIZAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>DOCUMENTO DE RESULTADO DE PRUEBAS ACTUALIZAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>DOCUMENTO ESPECIFICACION DE PRUEBAS LISTAR PRODUCTO</t>
-  </si>
-  <si>
-    <t>DOCUMENTO PLAN DE PRUEBAS</t>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>LISTAR ARTICULO/PRODUCTO</t>
+  </si>
+  <si>
+    <t>ACTUALIZACION ARTICULO/PRODUCTO</t>
+  </si>
+  <si>
+    <t>MODO DE EJECUCION DE PRUEBAS CREACION DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO DE RESULTADO DE PRUEBAS CREACION DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO ESPECIFICACION DE PRUEBAS ACTUALIZACION/LISTAR RPODUCTOS</t>
+  </si>
+  <si>
+    <t>MODO DE EJECUCION DE PRUEBAS CREACION DEL PRODUCTO ACTUALIZACION/LISTAR RPODUCTOS</t>
+  </si>
+  <si>
+    <t>DOCUMENTO DE RESULTADO DE PRUEBAS CREACION DEL PRODUCTO ACTUALIZACION/LISTAR RPODUCTOS</t>
+  </si>
+  <si>
+    <t>ENTREGA DEL PRODUCTO FUNCIONAL HASTA EL 1ER SPRINT</t>
+  </si>
+  <si>
+    <t>EQUIPO</t>
+  </si>
+  <si>
+    <t>En espera</t>
   </si>
 </sst>
 </file>
@@ -719,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,77 +823,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P84"/>
+  <dimension ref="B1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1192,58 +1228,58 @@
   <sheetData>
     <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="33"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1485,58 +1521,58 @@
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="33"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="58"/>
       <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2358,58 +2394,58 @@
       <c r="P32" s="13"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="38" t="s">
+      <c r="G33" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="56" t="s">
         <v>6</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="36"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="33"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="2" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" ref="L35:L54" si="2">K35-(SUM(M35:P35))</f>
+        <f t="shared" ref="L35:L53" si="2">K35-(SUM(M35:P35))</f>
         <v>8</v>
       </c>
       <c r="M35" s="9">
@@ -2801,298 +2837,296 @@
       <c r="O43" s="22"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="22" t="s">
+    <row r="44" spans="2:16" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="59"/>
+      <c r="C44" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="60">
         <v>42828</v>
       </c>
-      <c r="J44" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="22">
-        <v>4</v>
-      </c>
-      <c r="L44" s="8">
+      <c r="J44" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="39">
+        <v>4</v>
+      </c>
+      <c r="L44" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="22">
-        <v>4</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="22" t="s">
+      <c r="M44" s="62"/>
+      <c r="N44" s="39">
+        <v>4</v>
+      </c>
+      <c r="O44" s="39"/>
+      <c r="P44" s="63"/>
+    </row>
+    <row r="45" spans="2:16" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="59"/>
+      <c r="C45" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="60">
         <v>42828</v>
       </c>
-      <c r="J45" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="22">
-        <v>4</v>
-      </c>
-      <c r="L45" s="8">
+      <c r="J45" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="39">
+        <v>4</v>
+      </c>
+      <c r="L45" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="22">
-        <v>4</v>
-      </c>
-      <c r="O45" s="22"/>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="22" t="s">
+      <c r="M45" s="62"/>
+      <c r="N45" s="39">
+        <v>4</v>
+      </c>
+      <c r="O45" s="39"/>
+      <c r="P45" s="63"/>
+    </row>
+    <row r="46" spans="2:16" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="59"/>
+      <c r="C46" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="60">
         <v>42828</v>
       </c>
-      <c r="J46" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="22">
-        <v>4</v>
-      </c>
-      <c r="L46" s="8">
+      <c r="J46" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="39">
+        <v>4</v>
+      </c>
+      <c r="L46" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="22">
-        <v>4</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="22" t="s">
+      <c r="M46" s="62"/>
+      <c r="N46" s="39">
+        <v>4</v>
+      </c>
+      <c r="O46" s="39"/>
+      <c r="P46" s="63"/>
+    </row>
+    <row r="47" spans="2:16" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="59"/>
+      <c r="C47" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="41">
         <v>42836</v>
       </c>
-      <c r="J47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="22">
-        <v>4</v>
-      </c>
-      <c r="L47" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="49">
-        <v>42836</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="22">
-        <v>4</v>
-      </c>
-      <c r="L48" s="8">
+      <c r="J47" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" s="39">
+        <v>4</v>
+      </c>
+      <c r="L47" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="22">
-        <v>4</v>
-      </c>
-      <c r="O48" s="22"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="22" t="s">
+      <c r="M47" s="62"/>
+      <c r="N47" s="39">
+        <v>4</v>
+      </c>
+      <c r="O47" s="39"/>
+      <c r="P47" s="63"/>
+    </row>
+    <row r="48" spans="2:16" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B48" s="59"/>
+      <c r="C48" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D48" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E48" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F48" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G48" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H48" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I48" s="41">
         <v>42836</v>
       </c>
-      <c r="J49" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="22">
+      <c r="J48" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48" s="39">
         <v>2</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L48" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="22">
+      <c r="M48" s="62"/>
+      <c r="N48" s="39">
         <v>2</v>
       </c>
-      <c r="O49" s="22"/>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="O48" s="39"/>
+      <c r="P48" s="63"/>
+    </row>
+    <row r="49" spans="2:16" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="59"/>
+      <c r="C49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="41">
+        <v>42836</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" s="39">
         <v>2</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="49">
-        <v>42836</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="22">
-        <v>2</v>
-      </c>
-      <c r="L50" s="8">
+      <c r="L49" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="22">
+      <c r="M49" s="62"/>
+      <c r="N49" s="39">
         <v>2</v>
       </c>
-      <c r="O50" s="22"/>
-      <c r="P50" s="25"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="63"/>
+    </row>
+    <row r="50" spans="2:16" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+      <c r="C50" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="41">
+        <v>42836</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" s="39">
+        <v>2</v>
+      </c>
+      <c r="L50" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="62"/>
+      <c r="N50" s="39">
+        <v>2</v>
+      </c>
+      <c r="O50" s="39"/>
+      <c r="P50" s="63"/>
     </row>
     <row r="51" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>65</v>
@@ -3103,8 +3137,8 @@
       <c r="H51" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="49">
-        <v>42836</v>
+      <c r="I51" s="33">
+        <v>42843</v>
       </c>
       <c r="J51" s="23" t="s">
         <v>30</v>
@@ -3121,220 +3155,222 @@
       <c r="O51" s="22"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
-        <v>4</v>
-      </c>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="26"/>
       <c r="C52" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>65</v>
+      <c r="F52" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="49">
-        <v>42843</v>
+      <c r="I52" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="J52" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L52" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M52" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="M52" s="24">
+        <v>4</v>
+      </c>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
+    <row r="53" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
       <c r="C53" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="I53" s="11">
+        <v>42828</v>
       </c>
       <c r="J53" s="23" t="s">
         <v>30</v>
       </c>
       <c r="K53" s="22">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L53" s="8">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M53" s="24">
-        <v>4</v>
-      </c>
-      <c r="N53" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="22">
+        <v>1</v>
+      </c>
       <c r="O53" s="22"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15">
+    <row r="54" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" s="11">
-        <v>42828</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" s="22">
-        <v>4</v>
-      </c>
-      <c r="L54" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M54" s="24">
-        <v>1</v>
-      </c>
-      <c r="N54" s="22">
-        <v>1</v>
-      </c>
-      <c r="O54" s="22"/>
-      <c r="P54" s="25"/>
-    </row>
-    <row r="55" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
+      <c r="I55" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="45"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="I56" s="42" t="s">
+      <c r="B56" s="48"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
+      <c r="C57" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="22">
         <v>16</v>
       </c>
-      <c r="J56" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M56" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="36"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="O57" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="P57" s="52" t="s">
-        <v>13</v>
-      </c>
+      <c r="L57" s="34">
+        <f t="shared" ref="L57:L83" si="3">K57-(SUM(M57:P57))</f>
+        <v>4</v>
+      </c>
+      <c r="M57" s="22">
+        <v>4</v>
+      </c>
+      <c r="N57" s="22">
+        <v>4</v>
+      </c>
+      <c r="O57" s="22">
+        <v>4</v>
+      </c>
+      <c r="P57" s="25"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="53"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>40</v>
@@ -3348,7 +3384,7 @@
       <c r="H58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="49" t="s">
+      <c r="I58" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J58" s="22" t="s">
@@ -3357,8 +3393,8 @@
       <c r="K58" s="22">
         <v>16</v>
       </c>
-      <c r="L58" s="50">
-        <f t="shared" ref="L58:L84" si="3">K58-(SUM(M58:P58))</f>
+      <c r="L58" s="34">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="M58" s="22">
@@ -3373,12 +3409,12 @@
       <c r="P58" s="25"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="53"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>40</v>
@@ -3387,12 +3423,12 @@
         <v>62</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J59" s="22" t="s">
@@ -3401,7 +3437,7 @@
       <c r="K59" s="22">
         <v>16</v>
       </c>
-      <c r="L59" s="50">
+      <c r="L59" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3417,26 +3453,26 @@
       <c r="P59" s="25"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="53"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J60" s="22" t="s">
@@ -3445,7 +3481,7 @@
       <c r="K60" s="22">
         <v>16</v>
       </c>
-      <c r="L60" s="50">
+      <c r="L60" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3461,26 +3497,26 @@
       <c r="P60" s="25"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J61" s="22" t="s">
@@ -3489,7 +3525,7 @@
       <c r="K61" s="22">
         <v>16</v>
       </c>
-      <c r="L61" s="50">
+      <c r="L61" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3505,12 +3541,12 @@
       <c r="P61" s="25"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62" s="22" t="s">
         <v>40</v>
@@ -3524,7 +3560,7 @@
       <c r="H62" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="49" t="s">
+      <c r="I62" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J62" s="22" t="s">
@@ -3533,7 +3569,7 @@
       <c r="K62" s="22">
         <v>16</v>
       </c>
-      <c r="L62" s="50">
+      <c r="L62" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3548,13 +3584,13 @@
       </c>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="24"/>
       <c r="C63" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>40</v>
@@ -3568,7 +3604,7 @@
       <c r="H63" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="49" t="s">
+      <c r="I63" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J63" s="22" t="s">
@@ -3577,7 +3613,7 @@
       <c r="K63" s="22">
         <v>16</v>
       </c>
-      <c r="L63" s="50">
+      <c r="L63" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3598,10 +3634,10 @@
         <v>38</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>63</v>
@@ -3612,7 +3648,7 @@
       <c r="H64" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="49" t="s">
+      <c r="I64" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J64" s="22" t="s">
@@ -3621,7 +3657,7 @@
       <c r="K64" s="22">
         <v>16</v>
       </c>
-      <c r="L64" s="50">
+      <c r="L64" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3636,16 +3672,16 @@
       </c>
       <c r="P64" s="25"/>
     </row>
-    <row r="65" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="24"/>
       <c r="C65" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>63</v>
@@ -3656,7 +3692,7 @@
       <c r="H65" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="49" t="s">
+      <c r="I65" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J65" s="22" t="s">
@@ -3665,7 +3701,7 @@
       <c r="K65" s="22">
         <v>16</v>
       </c>
-      <c r="L65" s="50">
+      <c r="L65" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -3680,57 +3716,53 @@
       </c>
       <c r="P65" s="25"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B66" s="24"/>
       <c r="C66" s="22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="I66" s="33">
+        <v>42828</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K66" s="22">
-        <v>16</v>
-      </c>
-      <c r="L66" s="50">
+        <v>4</v>
+      </c>
+      <c r="L66" s="34">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M66" s="22">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M66" s="22"/>
       <c r="N66" s="22">
         <v>4</v>
       </c>
-      <c r="O66" s="22">
-        <v>4</v>
-      </c>
+      <c r="O66" s="22"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="2:16" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B67" s="24"/>
       <c r="C67" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>44</v>
@@ -3744,16 +3776,16 @@
       <c r="H67" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I67" s="49">
+      <c r="I67" s="33">
         <v>42828</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K67" s="22">
         <v>4</v>
       </c>
-      <c r="L67" s="50">
+      <c r="L67" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3764,16 +3796,16 @@
       <c r="O67" s="22"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="2:16" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="24"/>
       <c r="C68" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>64</v>
@@ -3784,16 +3816,16 @@
       <c r="H68" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="49">
+      <c r="I68" s="33">
         <v>42828</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K68" s="22">
         <v>4</v>
       </c>
-      <c r="L68" s="50">
+      <c r="L68" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3804,13 +3836,13 @@
       <c r="O68" s="22"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="2:16" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="24"/>
       <c r="C69" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>40</v>
@@ -3824,33 +3856,33 @@
       <c r="H69" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I69" s="49">
-        <v>42828</v>
+      <c r="I69" s="33">
+        <v>42836</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K69" s="22">
         <v>4</v>
       </c>
-      <c r="L69" s="50">
+      <c r="L69" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M69" s="22"/>
-      <c r="N69" s="22">
-        <v>4</v>
-      </c>
-      <c r="O69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22">
+        <v>4</v>
+      </c>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="2:16" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="24"/>
       <c r="C70" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>50</v>
+      <c r="D70" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>40</v>
@@ -3864,35 +3896,33 @@
       <c r="H70" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I70" s="49">
-        <v>42836</v>
+      <c r="I70" s="33">
+        <v>42843</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K70" s="22">
         <v>4</v>
       </c>
-      <c r="L70" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="L70" s="34">
+        <f t="shared" ref="L70" si="4">K70-(SUM(M70:P70))</f>
+        <v>2</v>
       </c>
       <c r="M70" s="22"/>
-      <c r="N70" s="22">
-        <v>2</v>
-      </c>
+      <c r="N70" s="22"/>
       <c r="O70" s="22">
         <v>2</v>
       </c>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="2:16" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="24"/>
       <c r="C71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="22" t="s">
-        <v>75</v>
+      <c r="D71" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>40</v>
@@ -3906,136 +3936,136 @@
       <c r="H71" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I71" s="49">
-        <v>42836</v>
+      <c r="I71" s="33">
+        <v>42843</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K71" s="22">
         <v>4</v>
       </c>
-      <c r="L71" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="L71" s="34">
+        <f t="shared" ref="L71" si="5">K71-(SUM(M71:P71))</f>
+        <v>2</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="24"/>
-      <c r="C72" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="C72" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I72" s="49">
-        <v>42843</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>30</v>
+      <c r="F72" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="41">
+        <v>42836</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="K72" s="22">
-        <v>4</v>
-      </c>
-      <c r="L72" s="50">
-        <f t="shared" ref="L72" si="4">K72-(SUM(M72:P72))</f>
         <v>2</v>
       </c>
+      <c r="L72" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22">
+      <c r="N72" s="22">
         <v>2</v>
       </c>
+      <c r="O72" s="22"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24"/>
-      <c r="C73" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I73" s="49">
-        <v>42843</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>30</v>
+      <c r="C73" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="41">
+        <v>42836</v>
+      </c>
+      <c r="J73" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="K73" s="22">
-        <v>4</v>
-      </c>
-      <c r="L73" s="50">
-        <f t="shared" ref="L73" si="5">K73-(SUM(M73:P73))</f>
         <v>2</v>
       </c>
+      <c r="L73" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22">
+      <c r="N73" s="22">
         <v>2</v>
       </c>
+      <c r="O73" s="22"/>
       <c r="P73" s="25"/>
     </row>
     <row r="74" spans="2:16" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24"/>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="22" t="s">
+      <c r="D74" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I74" s="49">
+      <c r="I74" s="41">
         <v>42836</v>
       </c>
-      <c r="J74" s="22" t="s">
-        <v>76</v>
+      <c r="J74" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="K74" s="22">
         <v>2</v>
       </c>
-      <c r="L74" s="50">
+      <c r="L74" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4046,53 +4076,53 @@
       <c r="O74" s="22"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="2:16" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="24"/>
-      <c r="C75" s="22" t="s">
+    <row r="75" spans="2:16" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="22" t="s">
+      <c r="D75" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I75" s="49">
-        <v>42836</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>76</v>
+      <c r="I75" s="41">
+        <v>42843</v>
+      </c>
+      <c r="J75" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="K75" s="22">
         <v>2</v>
       </c>
-      <c r="L75" s="50">
+      <c r="L75" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22">
+      <c r="M75" s="24"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22">
         <v>2</v>
       </c>
-      <c r="O75" s="22"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="2:16" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="24"/>
       <c r="C76" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>44</v>
@@ -4106,36 +4136,36 @@
       <c r="H76" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I76" s="49">
-        <v>42836</v>
+      <c r="I76" s="33">
+        <v>42843</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K76" s="22">
         <v>2</v>
       </c>
-      <c r="L76" s="50">
+      <c r="L76" s="34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="24"/>
       <c r="C77" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>65</v>
@@ -4146,7 +4176,7 @@
       <c r="H77" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I77" s="49">
+      <c r="I77" s="33">
         <v>42843</v>
       </c>
       <c r="J77" s="22" t="s">
@@ -4155,8 +4185,8 @@
       <c r="K77" s="22">
         <v>2</v>
       </c>
-      <c r="L77" s="50">
-        <f t="shared" si="3"/>
+      <c r="L77" s="34">
+        <f t="shared" ref="L77" si="6">K77-(SUM(M77:P77))</f>
         <v>1</v>
       </c>
       <c r="M77" s="22"/>
@@ -4166,13 +4196,13 @@
       </c>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="24"/>
       <c r="C78" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>40</v>
@@ -4186,36 +4216,36 @@
       <c r="H78" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I78" s="49">
+      <c r="I78" s="33">
         <v>42843</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K78" s="22">
-        <v>4</v>
-      </c>
-      <c r="L78" s="50">
-        <f t="shared" ref="L78" si="6">K78-(SUM(M78:P78))</f>
         <v>2</v>
+      </c>
+      <c r="L78" s="34">
+        <f t="shared" ref="L78:L79" si="7">K78-(SUM(M78:P78))</f>
+        <v>1</v>
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
       <c r="O78" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="24"/>
       <c r="C79" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F79" s="22" t="s">
         <v>65</v>
@@ -4226,36 +4256,36 @@
       <c r="H79" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I79" s="49">
+      <c r="I79" s="33">
         <v>42843</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K79" s="22">
-        <v>4</v>
-      </c>
-      <c r="L79" s="50">
-        <f t="shared" ref="L79:L80" si="7">K79-(SUM(M79:P79))</f>
         <v>2</v>
+      </c>
+      <c r="L79" s="34">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
       <c r="O79" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="24"/>
       <c r="C80" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>65</v>
@@ -4266,191 +4296,149 @@
       <c r="H80" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I80" s="33">
         <v>42843</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K80" s="22">
-        <v>4</v>
-      </c>
-      <c r="L80" s="50">
-        <f t="shared" si="7"/>
         <v>2</v>
+      </c>
+      <c r="L80" s="34">
+        <f t="shared" ref="L80" si="8">K80-(SUM(M80:P80))</f>
+        <v>1</v>
       </c>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
       <c r="O80" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="24"/>
       <c r="C81" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I81" s="49">
-        <v>42843</v>
+      <c r="I81" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="J81" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K81" s="22">
-        <v>4</v>
-      </c>
-      <c r="L81" s="50">
-        <f t="shared" ref="L81:L82" si="8">K81-(SUM(M81:P81))</f>
-        <v>2</v>
-      </c>
-      <c r="M81" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="L81" s="34">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M81" s="22">
+        <v>4</v>
+      </c>
       <c r="N81" s="22"/>
       <c r="O81" s="22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B82" s="24"/>
       <c r="C82" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I82" s="49">
-        <v>42843</v>
+      <c r="I82" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K82" s="22">
-        <v>4</v>
-      </c>
-      <c r="L82" s="50">
-        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L82" s="34">
+        <f t="shared" ref="L82" si="9">K82-(SUM(M82:P82))</f>
         <v>2</v>
       </c>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
-      <c r="O82" s="22">
-        <v>2</v>
-      </c>
+      <c r="O82" s="22"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="24"/>
-      <c r="C83" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J83" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="22">
-        <v>16</v>
-      </c>
-      <c r="L83" s="50">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M83" s="22">
-        <v>4</v>
-      </c>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22">
-        <v>8</v>
-      </c>
-      <c r="P83" s="25"/>
-    </row>
-    <row r="84" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="20"/>
-      <c r="C84" s="16" t="s">
+    <row r="83" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E83" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F83" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G83" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H83" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="54">
+      <c r="I83" s="37">
         <v>42828</v>
       </c>
-      <c r="J84" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="16">
-        <v>4</v>
-      </c>
-      <c r="L84" s="55">
+      <c r="J83" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="16">
+        <v>4</v>
+      </c>
+      <c r="L83" s="38">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M83" s="16">
         <v>1</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N83" s="16">
         <v>1</v>
       </c>
-      <c r="O84" s="16">
+      <c r="O83" s="16">
         <v>1</v>
       </c>
-      <c r="P84" s="21"/>
+      <c r="P83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -4490,18 +4478,18 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
